--- a/IcePaHC/IcePaHC - við.xlsx
+++ b/IcePaHC/IcePaHC - við.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Overview" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'List dative'!$A$1:$L$239</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'List accusative'!$A$1:$L$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'List dative'!$A$1:$L$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'List accusative'!$A$1:$L$180</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'List dative'!$A$1:$L$161</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'List accusative'!$A$1:$L$180</definedName>
   </definedNames>
@@ -1469,1004 +1469,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" spc="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout/>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Dat</c:v>
-          </c:tx>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Overview!$A$9:$A$18</c:f>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Overview!$F$9:$F$18</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Acc</c:v>
-          </c:tx>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Overview!$A$9:$A$18</c:f>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Overview!$N$9:$N$18</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLeaderLines val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1001"/>
-        <c:axId val="1002"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr bwMode="auto">
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1002"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100.000000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr bwMode="auto">
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr bwMode="auto">
-    <a:xfrm rot="0">
-      <a:off x="9143999" y="1133474"/>
-      <a:ext cx="4552949" cy="2724149"/>
-    </a:xfrm>
-    <a:prstGeom prst="rect">
-      <a:avLst/>
-    </a:prstGeom>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="+mn-lt"/>
-          <a:ea typeface="+mn-ea"/>
-          <a:cs typeface="+mn-cs"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" spc="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr bwMode="auto">
-      <a:prstGeom prst="rect">
-        <a:avLst/>
-      </a:prstGeom>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1953221372" name=""/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm rot="0">
-        <a:off x="9143999" y="1133474"/>
-        <a:ext cx="4552949" cy="2724149"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29805,6 +28807,5 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>